--- a/chemical-engineering/viscosity/粘度測定.xlsx
+++ b/chemical-engineering/viscosity/粘度測定.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nami/git/experimental-data/chemical-engineering/viscosity/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nami/Git/experimental-data/chemical-engineering/viscosity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCC0F63-A1D1-1248-A053-48842D823E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F694A5D-8A4B-6243-94DD-8598FC37DE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" activeTab="2" xr2:uid="{86E0AD85-B5EE-4AD0-95C5-2CA8E0098A8E}"/>
   </bookViews>
@@ -908,36 +908,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1041,6 +1011,92 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CCBC-CC4C-80B5-D3A524819C07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>粘度!$I$3:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="0.000_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>粘度!$H$3:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.11015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.873</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6975</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2509999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76780000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5525500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E738-FB44-8E8E-47413F816914}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3282,10 +3338,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CFF3B8-9ED7-4783-BF15-0A42AF43CC54}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -3300,7 +3356,7 @@
     <col min="8" max="8" width="10.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="22">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="22">
       <c r="A1" s="16" t="s">
         <v>19</v>
       </c>
@@ -3318,7 +3374,7 @@
       </c>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="14.25" customHeight="1">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A2" s="17"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -3340,7 +3396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="6">
         <v>0</v>
       </c>
@@ -3363,9 +3419,15 @@
       <c r="G3" s="6">
         <v>0.89</v>
       </c>
-      <c r="H3" s="6"/>
+      <c r="H3" s="6">
+        <f>AVERAGE(1.245,0.9753)</f>
+        <v>1.11015</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="7">
         <f>'wt%'!C2</f>
         <v>19.696020000000001</v>
@@ -3391,8 +3453,15 @@
         <f>F4*E4*$G$3/($F$3*$E$3)</f>
         <v>1.3556975543879708</v>
       </c>
+      <c r="H4" s="6">
+        <f>AVERAGE(2.154,1.592)</f>
+        <v>1.873</v>
+      </c>
+      <c r="I4">
+        <v>21.2</v>
+      </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="7">
         <f>'wt%'!C3</f>
         <v>40.03248</v>
@@ -3418,8 +3487,15 @@
         <f t="shared" ref="G5:G8" si="1">F5*E5*$G$3/($F$3*$E$3)</f>
         <v>1.526000879624803</v>
       </c>
+      <c r="H5" s="6">
+        <f>AVERAGE(1.927,1.468)</f>
+        <v>1.6975</v>
+      </c>
+      <c r="I5">
+        <v>38.54</v>
+      </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="7">
         <f>'wt%'!C4</f>
         <v>56.666249999999998</v>
@@ -3445,8 +3521,15 @@
         <f t="shared" si="1"/>
         <v>1.4005128169944006</v>
       </c>
+      <c r="H6" s="6">
+        <f>AVERAGE(1.391,1.111)</f>
+        <v>1.2509999999999999</v>
+      </c>
+      <c r="I6">
+        <v>59.39</v>
+      </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="7">
         <f>'wt%'!C5</f>
         <v>79.860650000000007</v>
@@ -3472,8 +3555,15 @@
         <f t="shared" si="1"/>
         <v>0.99629662324785662</v>
       </c>
+      <c r="H7" s="6">
+        <f>AVERAGE(0.8323,0.7033)</f>
+        <v>0.76780000000000004</v>
+      </c>
+      <c r="I7">
+        <v>84.97</v>
+      </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="7">
         <f>'wt%'!C6</f>
         <v>100</v>
@@ -3498,6 +3588,13 @@
       <c r="G8" s="7">
         <f t="shared" si="1"/>
         <v>0.57033370437551423</v>
+      </c>
+      <c r="H8" s="6">
+        <f>AVERAGE(0.5923,0.5128)</f>
+        <v>0.5525500000000001</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3517,20 +3614,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="34567b93-0360-4604-9400-30b3298f2fb8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="34567b93-0360-4604-9400-30b3298f2fb8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3731,6 +3828,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DAEE4F0-F670-40B2-84DF-CFD83460D0B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E6058BD-EB26-44BE-A71D-E3D011AE77A3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -3738,14 +3843,6 @@
     <ds:schemaRef ds:uri="34567b93-0360-4604-9400-30b3298f2fb8"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DAEE4F0-F670-40B2-84DF-CFD83460D0B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
